--- a/数据表/装备属性表.xlsx
+++ b/数据表/装备属性表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="15540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="装备属性" sheetId="1" r:id="rId1"/>
     <sheet name="装备品质" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,18 +49,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -68,9 +66,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>耐久增强</t>
@@ -83,18 +79,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -102,9 +96,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>重量减轻</t>
@@ -139,18 +131,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -158,9 +148,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幸运：本次计算不减少饥渴值，本次计算不扣除生命，本次不消耗，本次回复双倍数值</t>
@@ -168,18 +156,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>双倍掉落</t>
@@ -192,18 +177,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -211,9 +194,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>由于重量导致的移动和攻击惩罚</t>
@@ -226,18 +207,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1~20</t>
@@ -250,18 +229,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 10%~20%</t>
@@ -274,18 +251,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1%~10%
@@ -294,9 +269,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>伤害</t>
@@ -309,18 +282,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1%~10%
@@ -329,9 +300,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>伤害</t>
@@ -344,18 +313,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1~20</t>
@@ -368,9 +335,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -378,9 +344,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>射程远有衰减</t>
@@ -393,18 +357,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0.5%~10%
@@ -413,9 +375,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>装弹速率</t>
@@ -428,18 +388,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -447,9 +405,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>飞行距离近没有伤害衰减</t>
@@ -462,18 +418,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1%~10%
@@ -482,9 +436,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>命中到恢复的时间</t>
@@ -497,18 +449,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -521,18 +471,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1%~10%</t>
@@ -545,18 +493,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0.5%~5%</t>
@@ -569,18 +515,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0.5~10.0</t>
@@ -592,17 +536,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>暂时不开放</t>
+  </si>
+  <si>
+    <t>固定属性</t>
+  </si>
+  <si>
     <t>近战武器</t>
   </si>
   <si>
+    <t>耐久增加x点</t>
+  </si>
+  <si>
+    <t>物品重量减轻20%~50%</t>
+  </si>
+  <si>
+    <t>攻击力增加x%</t>
+  </si>
+  <si>
+    <t>增加x%致命一击几率</t>
+  </si>
+  <si>
+    <t>攻击速度增加x%</t>
+  </si>
+  <si>
+    <t>幸运值增加x点</t>
+  </si>
+  <si>
+    <t>攻击距离增加10%</t>
+  </si>
+  <si>
+    <t>特殊伤害</t>
+  </si>
+  <si>
+    <t>移动速度减少x%</t>
+  </si>
+  <si>
+    <t>枪炮</t>
+  </si>
+  <si>
+    <t>装填速度增加x%</t>
+  </si>
+  <si>
+    <t>有效射程增加20%</t>
+  </si>
+  <si>
+    <t>飞镖\回旋镖\弓弩</t>
+  </si>
+  <si>
+    <t>飞行距离增加10%</t>
+  </si>
+  <si>
     <t>防具（头盔）</t>
   </si>
   <si>
+    <t>防御力增加x%</t>
+  </si>
+  <si>
+    <t>伤害吸收</t>
+  </si>
+  <si>
+    <t>生命+15</t>
+  </si>
+  <si>
     <t>防具（盔甲）</t>
   </si>
   <si>
@@ -615,42 +616,96 @@
     <t>防具（鞋子）</t>
   </si>
   <si>
-    <t>耐久增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加x%致命一击几率</t>
-  </si>
-  <si>
-    <t>增加x%致命一击几率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度减少x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运值增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>移动速度增加x%</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>装饰</t>
+  </si>
+  <si>
+    <t>最大生命增加等等稀有属性</t>
+  </si>
+  <si>
+    <t>近战攻击距离增加的问题如何解决</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这里需要一个u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i表现有效攻击距离，准星缩小</t>
+    </r>
+  </si>
+  <si>
+    <t>装备的重量均有移动惩罚，通过减轻负重有间接加速的效果</t>
+  </si>
+  <si>
+    <t>特殊伤害(暂时不开放)</t>
+  </si>
+  <si>
+    <t>涂毒：中毒每秒掉1/100生命，持续8秒,可以叠加(中毒后再中毒几率上升???)</t>
+  </si>
+  <si>
+    <t>出血：中毒每秒掉1/100生命，持续8秒,不可以叠加，嗑药无效</t>
+  </si>
+  <si>
+    <t>感电：额外遭受30%的伤害</t>
+  </si>
+  <si>
+    <t>断筋：移动速度减少20%</t>
+  </si>
+  <si>
+    <t>致盲: 视线混乱</t>
+  </si>
+  <si>
+    <t>混乱：混乱攻击,随机选择目标</t>
+  </si>
+  <si>
+    <t>无力: 攻击力减少30%</t>
+  </si>
+  <si>
+    <t>虚弱：防御减少25%</t>
+  </si>
+  <si>
+    <t>破绽:所有攻击必定会被暴击</t>
+  </si>
+  <si>
+    <t>嗜血:攻击回复生命</t>
+  </si>
+  <si>
+    <t>灼烧:</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>无视距离衰减</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -658,20 +713,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>白装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>d</t>
     </r>
     <r>
@@ -679,48 +735,60 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白装</t>
   </si>
   <si>
     <t>基础属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>绿装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1个附加属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蓝装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2个附加属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫装</t>
+  </si>
+  <si>
+    <t>3~4个附加属性</t>
   </si>
   <si>
     <t>橙装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4属性,外加特殊属性</t>
+  </si>
+  <si>
+    <t>橙装(时装)</t>
   </si>
   <si>
     <t>无属性，可以吸收同类型装备的属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>掉落规则:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设计0</t>
     </r>
     <r>
@@ -728,209 +796,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>~全属性的几率，随机一次，算出会出现哪个</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>根据属性个数再随机</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害吸收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命+15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离增加10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪炮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞镖\回旋镖\弓弩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效射程增加20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行距离增加10%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这里需要一个u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i表现有效攻击距离，准星缩小</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>出血：中毒每秒掉1/100生命，持续8秒,不可以叠加，嗑药无效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>感电：额外遭受30%的伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋：移动速度减少20%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>致盲: 视线混乱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>混乱：混乱攻击,随机选择目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱：防御减少25%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽:所有攻击必定会被暴击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血:攻击回复生命</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊伤害(暂时不开放)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装饰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运值增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运值增加x点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度减少x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度减少x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击距离增加的问题如何解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备的重量均有移动惩罚，通过减轻负重有间接加速的效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品重量减轻20%~50%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装填速度增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度增加x%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不开放</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4个附加属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4属性,外加特殊属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙装(时装)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂毒：中毒每秒掉1/100生命，持续8秒,可以叠加(中毒后再中毒几率上升???)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无力: 攻击力减少30%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视距离衰减</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,40 +825,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -980,36 +887,290 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1017,9 +1178,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,17 +1430,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1328,16 +1778,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1355,316 +1805,322 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="G1"/>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -1672,91 +2128,92 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -1764,63 +2221,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1828,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1836,26 +2293,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>